--- a/Client/Resources/Data/Wave/Wave.xlsx
+++ b/Client/Resources/Data/Wave/Wave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DDBDF1-9029-4144-9C02-48B77DB9CC9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B00E37-F6FE-43CA-A4C2-A5408A5F7745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>St_1_Target_Defencse0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>Stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -458,30 +458,30 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -490,24 +490,24 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -516,18 +516,18 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -542,18 +542,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -568,18 +568,18 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -594,24 +594,24 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -620,24 +620,24 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -646,24 +646,24 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -672,18 +672,18 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -698,18 +698,18 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -724,18 +724,18 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -750,18 +750,18 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -776,18 +776,18 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -802,18 +802,18 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -828,18 +828,18 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -854,18 +854,18 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -880,18 +880,18 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/Wave/Wave.xlsx
+++ b/Client/Resources/Data/Wave/Wave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B00E37-F6FE-43CA-A4C2-A5408A5F7745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C710B4-5B41-4A6E-9D79-B1EB52051074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>St_1_Target_Defencse0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St1TargetDefense0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -464,18 +464,18 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -490,18 +490,18 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -516,18 +516,18 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -542,18 +542,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -568,18 +568,18 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -620,18 +620,18 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -646,18 +646,18 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -672,18 +672,18 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -698,18 +698,18 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -724,18 +724,18 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -750,18 +750,18 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -776,18 +776,18 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -802,18 +802,18 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -828,18 +828,18 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -854,18 +854,18 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -880,18 +880,18 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/Wave/Wave.xlsx
+++ b/Client/Resources/Data/Wave/Wave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C710B4-5B41-4A6E-9D79-B1EB52051074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A947D0B-9B34-4EF7-B1B8-24F530FF7028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>StageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>St1TargetDefense0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -490,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
@@ -516,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>

--- a/Client/Resources/Data/Wave/Wave.xlsx
+++ b/Client/Resources/Data/Wave/Wave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A947D0B-9B34-4EF7-B1B8-24F530FF7028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DF388-2047-4DE0-A18E-618AE126A877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>StageID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elite</t>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,63 +472,17 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
